--- a/Cableing CNC 2.0.xlsx
+++ b/Cableing CNC 2.0.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Controler Unit" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CNC Plug Panel" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sub-Distribution I" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sub-Distribution II" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="LED Panel" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Arduino Mini" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="227">
   <si>
     <t xml:space="preserve">Controler Unit</t>
   </si>
@@ -1359,6 +1361,114 @@
   </si>
   <si>
     <t xml:space="preserve">Emergency Switch - Closer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabel connected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool Observer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool on/off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange/yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stepped enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow = GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown/red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergeny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown = GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Button 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Button 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Button 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Switch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ymin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Switch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool powered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable connected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zMAx</t>
   </si>
 </sst>
 </file>
@@ -1483,13 +1593,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <i val="true"/>
       <sz val="8"/>
       <color rgb="FF1F497D"/>
@@ -1500,6 +1603,14 @@
     <font>
       <sz val="8"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1573,7 +1684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1714,7 +1825,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1722,7 +1833,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1748,14 +1859,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1822,8 +1925,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1905,8 +2032,8 @@
   </sheetPr>
   <dimension ref="B2:M73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I52" activeCellId="0" sqref="I52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1917,7 +2044,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="2.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="2.42"/>
@@ -3461,13 +3588,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="2.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="2.42"/>
@@ -4241,7 +4368,7 @@
       <c r="F38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="35" t="s">
         <v>104</v>
       </c>
       <c r="H38" s="14" t="s">
@@ -4267,7 +4394,7 @@
       <c r="F39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="14" t="s">
         <v>10</v>
       </c>
@@ -4409,7 +4536,7 @@
       <c r="F46" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="35" t="s">
         <v>107</v>
       </c>
       <c r="H46" s="14" t="s">
@@ -4439,7 +4566,7 @@
       <c r="F47" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="44"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="14" t="s">
         <v>10</v>
       </c>
@@ -4467,7 +4594,7 @@
       <c r="F48" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="44"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="14" t="s">
         <v>10</v>
       </c>
@@ -4495,7 +4622,7 @@
       <c r="F49" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="44"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="14" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +4650,7 @@
       <c r="F50" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="37" t="s">
         <v>116</v>
       </c>
       <c r="H50" s="14" t="s">
@@ -4553,7 +4680,7 @@
       <c r="F51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="37"/>
       <c r="H51" s="14" t="s">
         <v>10</v>
       </c>
@@ -4581,7 +4708,7 @@
       <c r="F52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="37" t="s">
         <v>121</v>
       </c>
       <c r="H52" s="14" t="s">
@@ -4611,7 +4738,7 @@
       <c r="F53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="45"/>
+      <c r="G53" s="37"/>
       <c r="H53" s="14" t="s">
         <v>10</v>
       </c>
@@ -4639,7 +4766,7 @@
       <c r="F54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="35" t="s">
         <v>126</v>
       </c>
       <c r="H54" s="14" t="s">
@@ -4669,7 +4796,7 @@
       <c r="F55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="44"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="14" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +4824,7 @@
       <c r="F56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="44"/>
+      <c r="G56" s="35"/>
       <c r="H56" s="14" t="s">
         <v>10</v>
       </c>
@@ -4725,7 +4852,7 @@
       <c r="F57" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="44"/>
+      <c r="G57" s="35"/>
       <c r="H57" s="14" t="s">
         <v>10</v>
       </c>
@@ -4753,7 +4880,7 @@
       <c r="F58" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="46"/>
+      <c r="G58" s="44"/>
       <c r="H58" s="39" t="s">
         <v>10</v>
       </c>
@@ -4772,7 +4899,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="47"/>
+      <c r="G59" s="45"/>
     </row>
     <row r="60" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
@@ -4801,7 +4928,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C61" s="48"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="13" t="s">
         <v>8</v>
       </c>
@@ -4811,7 +4938,7 @@
       <c r="F61" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="44" t="s">
+      <c r="G61" s="35" t="s">
         <v>137</v>
       </c>
       <c r="H61" s="14" t="s">
@@ -4837,7 +4964,7 @@
       <c r="F62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="44"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="14" t="s">
         <v>10</v>
       </c>
@@ -4849,37 +4976,37 @@
       <c r="L62" s="16"/>
       <c r="M62" s="17"/>
     </row>
-    <row r="64" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="47" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51" t="s">
+      <c r="F64" s="49"/>
+      <c r="G64" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="52" t="s">
+      <c r="H64" s="49"/>
+      <c r="I64" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J64" s="53"/>
-      <c r="K64" s="52" t="s">
+      <c r="J64" s="51"/>
+      <c r="K64" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M64" s="54" t="s">
+      <c r="M64" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C65" s="48"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="13" t="s">
         <v>8</v>
       </c>
@@ -4889,7 +5016,7 @@
       <c r="F65" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="35" t="s">
         <v>140</v>
       </c>
       <c r="H65" s="14" t="s">
@@ -4919,7 +5046,7 @@
       <c r="F66" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="44"/>
+      <c r="G66" s="35"/>
       <c r="H66" s="14" t="s">
         <v>10</v>
       </c>
@@ -4990,7 +5117,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="2.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="2.42"/>
@@ -5006,26 +5133,26 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="55" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="56" t="s">
+    <row r="4" s="53" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="L4" s="54" t="s">
+      <c r="I4" s="57"/>
+      <c r="L4" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5100,29 +5227,29 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="49" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="50" t="s">
+    <row r="9" s="47" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51" t="s">
+      <c r="I9" s="50"/>
+      <c r="J9" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5136,7 +5263,7 @@
       <c r="E10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="35" t="s">
         <v>149</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -5166,7 +5293,7 @@
       <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="14" t="s">
         <v>10</v>
       </c>
@@ -5192,7 +5319,7 @@
       <c r="E12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
@@ -5218,7 +5345,7 @@
       <c r="E13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="14" t="s">
         <v>10</v>
       </c>
@@ -5244,7 +5371,7 @@
       <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="35" t="s">
         <v>154</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -5270,7 +5397,7 @@
       <c r="E15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="14" t="s">
         <v>10</v>
       </c>
@@ -5294,7 +5421,7 @@
       <c r="E16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="14" t="s">
         <v>10</v>
       </c>
@@ -5318,7 +5445,7 @@
       <c r="E17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="35" t="s">
         <v>160</v>
       </c>
       <c r="G17" s="14" t="s">
@@ -5345,7 +5472,7 @@
       <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="14" t="s">
         <v>10</v>
       </c>
@@ -5370,7 +5497,7 @@
       <c r="E19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
@@ -5395,7 +5522,7 @@
       <c r="E20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="35" t="s">
         <v>163</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -5425,7 +5552,7 @@
       <c r="E21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="14" t="s">
         <v>10</v>
       </c>
@@ -5453,7 +5580,7 @@
       <c r="E22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -5473,7 +5600,7 @@
       <c r="E23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -5493,7 +5620,7 @@
       <c r="E24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -5513,7 +5640,7 @@
       <c r="E25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -5524,27 +5651,27 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="49" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="50" t="s">
+    <row r="27" s="47" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="60" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51" t="s">
+      <c r="G27" s="49"/>
+      <c r="H27" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="51"/>
-      <c r="L27" s="54" t="s">
+      <c r="I27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="L27" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5966,7 +6093,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="2.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="2.42"/>
@@ -5982,26 +6109,26 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="55" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="56" t="s">
+    <row r="4" s="53" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="L4" s="54" t="s">
+      <c r="I4" s="57"/>
+      <c r="L4" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6076,29 +6203,29 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="49" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="50" t="s">
+    <row r="9" s="47" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51" t="s">
+      <c r="I9" s="50"/>
+      <c r="J9" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6112,13 +6239,13 @@
       <c r="E10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="35" t="s">
         <v>177</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I10" s="14" t="s">
@@ -6142,11 +6269,11 @@
       <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I11" s="14" t="s">
@@ -6168,11 +6295,11 @@
       <c r="E12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -6194,11 +6321,11 @@
       <c r="E13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -6220,13 +6347,13 @@
       <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="35" t="s">
         <v>179</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I14" s="30"/>
@@ -6246,11 +6373,11 @@
       <c r="E15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I15" s="30"/>
@@ -6270,11 +6397,11 @@
       <c r="E16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I16" s="30"/>
@@ -6294,13 +6421,13 @@
       <c r="E17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="35" t="s">
         <v>183</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I17" s="30"/>
@@ -6320,11 +6447,11 @@
       <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I18" s="30"/>
@@ -6344,11 +6471,11 @@
       <c r="E19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I19" s="30"/>
@@ -6368,13 +6495,13 @@
       <c r="E20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="35" t="s">
         <v>184</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I20" s="14"/>
@@ -6394,11 +6521,11 @@
       <c r="E21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="60" t="s">
         <v>178</v>
       </c>
       <c r="I21" s="14"/>
@@ -6562,4 +6689,326 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:AMJ13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
+  </cols>
+  <sheetData>
+    <row r="3" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B4:H12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.19"/>
+  </cols>
+  <sheetData>
+    <row r="4" s="63" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>